--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ntrk3-Ptprs.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10442898318463</v>
+        <v>1.467507333333333</v>
       </c>
       <c r="H2">
-        <v>1.10442898318463</v>
+        <v>4.402521999999999</v>
       </c>
       <c r="I2">
-        <v>0.1521799365620099</v>
+        <v>0.1890754490804</v>
       </c>
       <c r="J2">
-        <v>0.1521799365620099</v>
+        <v>0.1890754490804</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.37105489388635</v>
+        <v>2.618716333333334</v>
       </c>
       <c r="N2">
-        <v>2.37105489388635</v>
+        <v>7.856149000000001</v>
       </c>
       <c r="O2">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301342</v>
       </c>
       <c r="P2">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301341</v>
       </c>
       <c r="Q2">
-        <v>2.618661745529842</v>
+        <v>3.842985423086445</v>
       </c>
       <c r="R2">
-        <v>2.618661745529842</v>
+        <v>34.586868807778</v>
       </c>
       <c r="S2">
-        <v>0.01004819873157144</v>
+        <v>0.01345443535372595</v>
       </c>
       <c r="T2">
-        <v>0.01004819873157144</v>
+        <v>0.01345443535372594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10442898318463</v>
+        <v>1.467507333333333</v>
       </c>
       <c r="H3">
-        <v>1.10442898318463</v>
+        <v>4.402521999999999</v>
       </c>
       <c r="I3">
-        <v>0.1521799365620099</v>
+        <v>0.1890754490804</v>
       </c>
       <c r="J3">
-        <v>0.1521799365620099</v>
+        <v>0.1890754490804</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.9331216370103</v>
+        <v>15.503283</v>
       </c>
       <c r="N3">
-        <v>14.9331216370103</v>
+        <v>46.509849</v>
       </c>
       <c r="O3">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="P3">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="Q3">
-        <v>16.49257234533568</v>
+        <v>22.751181493242</v>
       </c>
       <c r="R3">
-        <v>16.49257234533568</v>
+        <v>204.760633439178</v>
       </c>
       <c r="S3">
-        <v>0.06328447910603338</v>
+        <v>0.07965273528825068</v>
       </c>
       <c r="T3">
-        <v>0.06328447910603338</v>
+        <v>0.07965273528825066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10442898318463</v>
+        <v>1.467507333333333</v>
       </c>
       <c r="H4">
-        <v>1.10442898318463</v>
+        <v>4.402521999999999</v>
       </c>
       <c r="I4">
-        <v>0.1521799365620099</v>
+        <v>0.1890754490804</v>
       </c>
       <c r="J4">
-        <v>0.1521799365620099</v>
+        <v>0.1890754490804</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.6054419963474</v>
+        <v>18.67887366666666</v>
       </c>
       <c r="N4">
-        <v>18.6054419963474</v>
+        <v>56.036621</v>
       </c>
       <c r="O4">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="P4">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="Q4">
-        <v>20.54838938572657</v>
+        <v>27.41138408424021</v>
       </c>
       <c r="R4">
-        <v>20.54838938572657</v>
+        <v>246.702456758162</v>
       </c>
       <c r="S4">
-        <v>0.07884725872440511</v>
+        <v>0.0959682784384234</v>
       </c>
       <c r="T4">
-        <v>0.07884725872440511</v>
+        <v>0.0959682784384234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.15295992191982</v>
+        <v>6.293983333333333</v>
       </c>
       <c r="H5">
-        <v>6.15295992191982</v>
+        <v>18.88195</v>
       </c>
       <c r="I5">
-        <v>0.84782006343799</v>
+        <v>0.8109245509196</v>
       </c>
       <c r="J5">
-        <v>0.84782006343799</v>
+        <v>0.8109245509195999</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.37105489388635</v>
+        <v>2.618716333333334</v>
       </c>
       <c r="N5">
-        <v>2.37105489388635</v>
+        <v>7.856149000000001</v>
       </c>
       <c r="O5">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301342</v>
       </c>
       <c r="P5">
-        <v>0.06602840662558052</v>
+        <v>0.07115908183301341</v>
       </c>
       <c r="Q5">
-        <v>14.58900573475456</v>
+        <v>16.48215695672778</v>
       </c>
       <c r="R5">
-        <v>14.58900573475456</v>
+        <v>148.33941261055</v>
       </c>
       <c r="S5">
-        <v>0.05598020789400907</v>
+        <v>0.05770464647928748</v>
       </c>
       <c r="T5">
-        <v>0.05598020789400907</v>
+        <v>0.05770464647928746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.15295992191982</v>
+        <v>6.293983333333333</v>
       </c>
       <c r="H6">
-        <v>6.15295992191982</v>
+        <v>18.88195</v>
       </c>
       <c r="I6">
-        <v>0.84782006343799</v>
+        <v>0.8109245509196</v>
       </c>
       <c r="J6">
-        <v>0.84782006343799</v>
+        <v>0.8109245509195999</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.9331216370103</v>
+        <v>15.503283</v>
       </c>
       <c r="N6">
-        <v>14.9331216370103</v>
+        <v>46.509849</v>
       </c>
       <c r="O6">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="P6">
-        <v>0.4158529733664751</v>
+        <v>0.4212748702999519</v>
       </c>
       <c r="Q6">
-        <v>91.88289894167806</v>
+        <v>97.57740481395001</v>
       </c>
       <c r="R6">
-        <v>91.88289894167806</v>
+        <v>878.19664332555</v>
       </c>
       <c r="S6">
-        <v>0.3525684942604417</v>
+        <v>0.3416221350117012</v>
       </c>
       <c r="T6">
-        <v>0.3525684942604417</v>
+        <v>0.3416221350117012</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.15295992191982</v>
+        <v>6.293983333333333</v>
       </c>
       <c r="H7">
-        <v>6.15295992191982</v>
+        <v>18.88195</v>
       </c>
       <c r="I7">
-        <v>0.84782006343799</v>
+        <v>0.8109245509196</v>
       </c>
       <c r="J7">
-        <v>0.84782006343799</v>
+        <v>0.8109245509195999</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.6054419963474</v>
+        <v>18.67887366666666</v>
       </c>
       <c r="N7">
-        <v>18.6054419963474</v>
+        <v>56.036621</v>
       </c>
       <c r="O7">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="P7">
-        <v>0.5181186200079444</v>
+        <v>0.5075660478670347</v>
       </c>
       <c r="Q7">
-        <v>114.4785389331294</v>
+        <v>117.5645195434389</v>
       </c>
       <c r="R7">
-        <v>114.4785389331294</v>
+        <v>1058.08067589095</v>
       </c>
       <c r="S7">
-        <v>0.4392713612835393</v>
+        <v>0.4115977694286114</v>
       </c>
       <c r="T7">
-        <v>0.4392713612835393</v>
+        <v>0.4115977694286113</v>
       </c>
     </row>
   </sheetData>
